--- a/biology/Médecine/Institut_régional_du_cancer_de_Montpellier/Institut_régional_du_cancer_de_Montpellier.xlsx
+++ b/biology/Médecine/Institut_régional_du_cancer_de_Montpellier/Institut_régional_du_cancer_de_Montpellier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_r%C3%A9gional_du_cancer_de_Montpellier</t>
+          <t>Institut_régional_du_cancer_de_Montpellier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’institut du cancer de Montpellier (ICM) est un établissement de santé privé d’intérêt collectif (ESPIC) fondé en 1923 : il est situé sur la Commune française de Montpellier dans le département de l'Hérault (Région Occitanie).
-L'ICM réalise un service public hospitalier : il figure parmi les rares établissements en France à regrouper sur un même site des unités de soins, de prévention, de recherche clinique, translationnelle et fondamentale. Il est également l’un des 8 centres en France labellisés « Site de recherche intégrée en cancérologie » (SIRIC) par l'Institut national du cancer (INCa). Il s’est par ailleurs hissé au fil des ans dans le peloton de tête des 20 centres de lutte contre le cancer (CLCC) en matière de recherche[1].
-Le groupe UNICANCER a été créé en 2010 par les 20 centres de lutte contre le cancer et leur Fédération[2]. Le groupe est porteur d’un modèle de cancérologie basé sur l’individualisation des traitements et le continuum recherche-soins.
+L'ICM réalise un service public hospitalier : il figure parmi les rares établissements en France à regrouper sur un même site des unités de soins, de prévention, de recherche clinique, translationnelle et fondamentale. Il est également l’un des 8 centres en France labellisés « Site de recherche intégrée en cancérologie » (SIRIC) par l'Institut national du cancer (INCa). Il s’est par ailleurs hissé au fil des ans dans le peloton de tête des 20 centres de lutte contre le cancer (CLCC) en matière de recherche.
+Le groupe UNICANCER a été créé en 2010 par les 20 centres de lutte contre le cancer et leur Fédération. Le groupe est porteur d’un modèle de cancérologie basé sur l’individualisation des traitements et le continuum recherche-soins.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Institut_r%C3%A9gional_du_cancer_de_Montpellier</t>
+          <t>Institut_régional_du_cancer_de_Montpellier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L’histoire de l’ICM se résume ainsi : d’une petite unité consacrée au cancer du sein à l'Hôpital Saint-Eloi jusqu’à la configuration actuelle.
 Quelques dates importantes :
@@ -543,7 +557,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Institut_r%C3%A9gional_du_cancer_de_Montpellier</t>
+          <t>Institut_régional_du_cancer_de_Montpellier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -561,7 +575,9 @@
           <t>Les missions de l’ICM</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ses missions en lien avec la cancérologie sont définies par l’ordonnance du 1er octobre 1945 et précisées par l’ordonnance n°2005-406 du 2 mai 2005 sur le même modèle qu’un « Comprehensive Cancer Center » :
 Les soins
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Institut_r%C3%A9gional_du_cancer_de_Montpellier</t>
+          <t>Institut_régional_du_cancer_de_Montpellier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,7 +611,9 @@
           <t>L’organisation en départements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L’activité de l'ICM s’organise autour de différents départements : recherche, chirurgie, médecine, consultation, radiothérapie, imagerie médicale, pharmaco-bio-pathologie, prévention (Epidaure),soins de support.
 </t>
@@ -608,7 +626,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Institut_r%C3%A9gional_du_cancer_de_Montpellier</t>
+          <t>Institut_régional_du_cancer_de_Montpellier</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,7 +644,9 @@
           <t>Les partenariats</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L’ICM travaille en collaboration avec les partenaires en cancérologie au niveau local, régional, national, européen et international.
 </t>
@@ -639,7 +659,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Institut_r%C3%A9gional_du_cancer_de_Montpellier</t>
+          <t>Institut_régional_du_cancer_de_Montpellier</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -657,7 +677,9 @@
           <t>À propos de l’ICM</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il emploie près de 1000 salariés et son Directeur général est le Professeur Marc Ychou.
 </t>
